--- a/my doc/files/作息.xlsx
+++ b/my doc/files/作息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>爸</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -75,6 +75,22 @@
   </si>
   <si>
     <t>玩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上課</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安親</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -185,13 +201,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,9 +324,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +332,51 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,7 +682,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -712,10 +847,10 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Z3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -733,22 +868,22 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="15" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="V4" s="10" t="s">
@@ -757,16 +892,88 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="15" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="T12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
     <mergeCell ref="K4:T4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="J6:S6"/>
+    <mergeCell ref="T6:X6"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="M3:X3"/>
     <mergeCell ref="B3:I3"/>
